--- a/biology/Botanique/Statice_de_Dodart/Statice_de_Dodart.xlsx
+++ b/biology/Botanique/Statice_de_Dodart/Statice_de_Dodart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonium dodartii
 La statice de Dodart (Limonium dodartii (Girard) Kuntze, 1891) une plante herbacée vivace de la famille des Plumbaginaceae. 
@@ -512,9 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Girard a donné à cette statice le nom de Dodart en hommage au fameux directeur botanique de l'Académie royale des sciences, Denis Dodart (1634-1707), qui entreprit sous le règne de Louis XIV un herbier encyclopédique : Mémoire pour servir à l'histoire des plantes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Girard a donné à cette statice le nom de Dodart en hommage au fameux directeur botanique de l'Académie royale des sciences, Denis Dodart (1634-1707), qui entreprit sous le règne de Louis XIV un herbier encyclopédique : Mémoire pour servir à l'histoire des plantes.
 L'étymologie du nom du genre procède du latin līmōnion, utilisé par Pline l'Ancien pour une plante sauvage, et dérive du grec ancien leimon (λειμών, pré, champ). Voir aussi limus, (de λίμνη, 'marais'), qui donne le français limon, boue, argile.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante à tige ramifiée de 10-30 cm, ses feuilles sont disposées en rose, avec des nervures parallèles. Les épines sont denses et les fleurs de couleur bleue-lavande. Elle est pollinisée par divers insectes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante à tige ramifiée de 10-30 cm, ses feuilles sont disposées en rose, avec des nervures parallèles. Les épines sont denses et les fleurs de couleur bleue-lavande. Elle est pollinisée par divers insectes.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Inconnu
 </t>
@@ -606,9 +624,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Végétation de falaise exposée aux aérosols marin[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Végétation de falaise exposée aux aérosols marin.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Endémique de la côte Atlantique française, espagnole et portugaise.
 </t>
@@ -668,9 +690,11 @@
           <t>État de conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hybridation avec Limonium binervosum et Limonium vulgare, la dégradation de son habitat naturel et la contamination maritime (déchets) sont les principaux facteurs qui menacent cette espèce[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hybridation avec Limonium binervosum et Limonium vulgare, la dégradation de son habitat naturel et la contamination maritime (déchets) sont les principaux facteurs qui menacent cette espèce.
 </t>
         </is>
       </c>
@@ -699,7 +723,9 @@
           <t>Catégorie de conservation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En risque d'extinction.
 </t>
@@ -732,9 +758,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>De portée nationale
-Réglementation préfectorale[5]
-Réglementation de la cueillette de certaines plantes sauvages dans le département de Corse-du-Sud : Article 2
+          <t>De portée nationale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Réglementation préfectorale[5]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Réglementation de la cueillette de certaines plantes sauvages dans le département de Corse-du-Sud : Article 2
 Réglementation de la cueillette de certaines plantes sauvages dans le département de Corse-du-Sud : Article 3
 Réglementation de la cueillette de certaines plantes sauvages dans le département de Haute-Corse : Article 2
 Réglementation de la cueillette de certaines plantes sauvages dans le département de Haute-Corse : Article 3
